--- a/repositories/Fredformer/notebooks/01.metrics.xlsx
+++ b/repositories/Fredformer/notebooks/01.metrics.xlsx
@@ -1067,7 +1067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,6 +1155,44 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fredformer</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>192</v>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.364</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.381</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.604</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.226</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/repositories/Fredformer/notebooks/01.metrics.xlsx
+++ b/repositories/Fredformer/notebooks/01.metrics.xlsx
@@ -1067,7 +1067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1169,27 +1169,103 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.364</t>
+          <t>0.366</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.381</t>
+          <t>0.382</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.604</t>
+          <t>0.605</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.226</t>
+          <t>2.228</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fredformer</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>336</v>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.397</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.404</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.630</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.253</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fredformer</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>720</v>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.455</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.441</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.674</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.468</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3.000</t>
         </is>
       </c>
     </row>
